--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\sensory-test-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28C2CD3-8183-410A-9F16-27D41E4A1E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732E61E8-4294-4A04-B3CB-25261890388C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="-98" windowWidth="19395" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,20 +39,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>james</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kobe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Debic</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>PRESIDENT</t>
+  </si>
+  <si>
+    <t>TATUA</t>
   </si>
 </sst>
 </file>
@@ -380,7 +376,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -398,10 +394,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>386</v>
+        <v>734</v>
       </c>
       <c r="B2">
-        <v>385</v>
+        <v>976</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -409,10 +405,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>472</v>
+        <v>242</v>
       </c>
       <c r="B3">
-        <v>826</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -420,10 +416,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>631</v>
+        <v>806</v>
       </c>
       <c r="B4">
-        <v>170</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -431,10 +427,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>902</v>
+        <v>406</v>
       </c>
       <c r="B5">
-        <v>759</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
